--- a/src/test/java/com/seopa/tests/automated/test/cases/SimpleHomeQuote01.xlsx
+++ b/src/test/java/com/seopa/tests/automated/test/cases/SimpleHomeQuote01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.mcparland\Documents\selenium_tests\src\test\java\com\seopa\tests\automated\test\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickmcparland/java/selenium_tests/src/test/java/com/seopa/tests/automated/test/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1176" windowWidth="28164" windowHeight="16884" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="175">
   <si>
     <t>Element Type</t>
   </si>
@@ -459,9 +459,6 @@
     <t>property_cover_type</t>
   </si>
   <si>
-    <t>//input[@name="property_cover_type" and @value="Y"]</t>
-  </si>
-  <si>
     <t>property_payment_type</t>
   </si>
   <si>
@@ -549,14 +546,17 @@
     <t>190000</t>
   </si>
   <si>
-    <t>//*[@id='postcode_id']/select/option[3]</t>
+    <t>//input[@name="property_cover_type" and @value="BC"]</t>
+  </si>
+  <si>
+    <t>Building and contents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -875,6 +875,9 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -892,9 +895,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,17 +1179,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.296875" style="7" customWidth="1"/>
-    <col min="2" max="8" width="20.296875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="7" customWidth="1"/>
+    <col min="2" max="8" width="20.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.2">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="46.8">
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>47</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="31.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="62.4">
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2">
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="62.4">
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1517,29 +1517,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.95" customHeight="1">
+    <row r="16" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="31.95" customHeight="1">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.2">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="31.2">
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>73</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>75</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="31.2">
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="62.4">
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -1793,18 +1793,18 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="31.95" customHeight="1">
+    <row r="30" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:8" ht="62.4">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>96</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="62.4">
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="62.4">
+    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="62.4">
+    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="31.2">
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>104</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="31.2">
+    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.2">
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="62.4">
+    <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>11</v>
       </c>
@@ -2046,18 +2046,18 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="31.95" customHeight="1">
+    <row r="42" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" ht="31.2">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>117</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>120</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>123</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>124</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>125</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>128</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="16.2">
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>129</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>24</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="62.4">
+    <row r="53" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.2">
+    <row r="54" spans="1:8" ht="32" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>132</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="16.2">
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>134</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="62.4">
+    <row r="56" spans="1:8" ht="64" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>136</v>
       </c>
@@ -2349,15 +2349,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="62.4">
+    <row r="57" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>6</v>
@@ -2368,10 +2368,10 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>140</v>
       </c>
@@ -2384,14 +2384,14 @@
       <c r="D58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>11</v>
       </c>
@@ -2411,18 +2411,18 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="31.95" customHeight="1">
+    <row r="60" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" spans="1:8" ht="46.8">
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>6</v>
@@ -2440,39 +2440,41 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="46.8">
-      <c r="A63" t="s">
-        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>6</v>
@@ -2484,15 +2486,15 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="46.8">
+    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>6</v>
@@ -2504,15 +2506,15 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="46.8">
+    <row r="65" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>6</v>
@@ -2524,15 +2526,15 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>16</v>
@@ -2541,18 +2543,18 @@
         <v>10</v>
       </c>
       <c r="H66" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="46.8">
-      <c r="A67" t="s">
-        <v>156</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>6</v>
@@ -2564,35 +2566,35 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>16</v>
@@ -2601,15 +2603,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>16</v>
@@ -2618,15 +2620,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="46.8">
+    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>6</v>
@@ -2638,35 +2640,35 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>16</v>
@@ -2678,15 +2680,15 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>16</v>
@@ -2698,35 +2700,35 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="46.8">
+    <row r="76" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>6</v>
@@ -2738,7 +2740,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>11</v>
       </c>
@@ -2758,18 +2760,18 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="31.95" customHeight="1">
+    <row r="78" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="21"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>32</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>11</v>
       </c>
@@ -2831,9 +2833,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.8">
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
